--- a/代码生成模板.xlsx
+++ b/代码生成模板.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988FFA28-2A21-4FCC-81F2-8AC71AC22F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC33698A-BAC1-46AA-9511-DE95D53EF022}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="797">
   <si>
     <t>来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2590,6 +2590,18 @@
   </si>
   <si>
     <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply_Age_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件信息_单位名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>进件信息_年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2597,7 +2609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2640,6 +2652,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2723,7 +2742,17 @@
     <cellStyle name="常规 3 2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="常规 3 2 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3070,7 +3099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FD383E-DFDA-48B6-AD01-C610A0E779B0}">
   <dimension ref="A1:D300"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
@@ -7287,7 +7316,7 @@
   <autoFilter ref="A1:D300" xr:uid="{E35C8A5D-2A86-4E65-A9F1-52E24D3AE636}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C300">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8611,10 +8640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E844E5AC-7CF0-438D-B703-EE174003249B}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8635,261 +8664,143 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>753</v>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>794</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>755</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>757</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>759</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>761</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>763</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>765</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>767</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>769</v>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>771</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>773</v>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>775</v>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>776</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>777</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>786</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>787</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
